--- a/Code/Results/Cases/Case_0_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03850967520598658</v>
+        <v>0.01329920743150836</v>
       </c>
       <c r="D2">
-        <v>0.02202793480459064</v>
+        <v>0.01439050169095069</v>
       </c>
       <c r="E2">
-        <v>1.444529047812225</v>
+        <v>0.4198948074681823</v>
       </c>
       <c r="F2">
-        <v>0.6651073881761675</v>
+        <v>0.650723534520111</v>
       </c>
       <c r="G2">
-        <v>0.5803537261963783</v>
+        <v>0.4963957283748357</v>
       </c>
       <c r="H2">
-        <v>0.3458941090916028</v>
+        <v>0.6036739029990343</v>
       </c>
       <c r="I2">
-        <v>0.4822749470525451</v>
+        <v>0.4853878073064237</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.51370895991414</v>
+        <v>1.798516330223947</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03388983773737664</v>
+        <v>0.0117465592745134</v>
       </c>
       <c r="D3">
-        <v>0.02047230291344349</v>
+        <v>0.01383539656992738</v>
       </c>
       <c r="E3">
-        <v>1.235268223823596</v>
+        <v>0.3661090505551385</v>
       </c>
       <c r="F3">
-        <v>0.5952979449857878</v>
+        <v>0.6453206059898733</v>
       </c>
       <c r="G3">
-        <v>0.5148219979011941</v>
+        <v>0.4915680850524922</v>
       </c>
       <c r="H3">
-        <v>0.3266078319758066</v>
+        <v>0.6085345640408946</v>
       </c>
       <c r="I3">
-        <v>0.4325489590505498</v>
+        <v>0.4822698352340282</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.784674394640888</v>
+        <v>1.577216875162094</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03106038442347625</v>
+        <v>0.01078868430304425</v>
       </c>
       <c r="D4">
-        <v>0.01955703363935513</v>
+        <v>0.01349990880263974</v>
       </c>
       <c r="E4">
-        <v>1.109970396353646</v>
+        <v>0.3332013591716816</v>
       </c>
       <c r="F4">
-        <v>0.5553720578728232</v>
+        <v>0.6427991269614992</v>
       </c>
       <c r="G4">
-        <v>0.4777355119317122</v>
+        <v>0.4893534966733597</v>
       </c>
       <c r="H4">
-        <v>0.3164716331243795</v>
+        <v>0.6121025897213741</v>
       </c>
       <c r="I4">
-        <v>0.4042644369594512</v>
+        <v>0.4809619969855561</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.339790468795115</v>
+        <v>1.44109836715262</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02990843204093352</v>
+        <v>0.01039722334574122</v>
       </c>
       <c r="D5">
-        <v>0.01919281628287095</v>
+        <v>0.013364543540618</v>
       </c>
       <c r="E5">
-        <v>1.059584150330338</v>
+        <v>0.3198181411214449</v>
       </c>
       <c r="F5">
-        <v>0.5397685238767664</v>
+        <v>0.6419701663047803</v>
       </c>
       <c r="G5">
-        <v>0.4633345032207785</v>
+        <v>0.4886376070778908</v>
       </c>
       <c r="H5">
-        <v>0.3127333936815404</v>
+        <v>0.6137025729576635</v>
       </c>
       <c r="I5">
-        <v>0.3932483898856702</v>
+        <v>0.4805803515486744</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.159033580179369</v>
+        <v>1.385569761136594</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02971719632630965</v>
+        <v>0.01033215465805881</v>
       </c>
       <c r="D6">
-        <v>0.0191328333090155</v>
+        <v>0.0133421478344431</v>
       </c>
       <c r="E6">
-        <v>1.051254742379754</v>
+        <v>0.3175974226221854</v>
       </c>
       <c r="F6">
-        <v>0.5372158383338714</v>
+        <v>0.6418444644584369</v>
       </c>
       <c r="G6">
-        <v>0.4609840195691817</v>
+        <v>0.4885299465882724</v>
       </c>
       <c r="H6">
-        <v>0.3121353490381011</v>
+        <v>0.6139770439112056</v>
       </c>
       <c r="I6">
-        <v>0.3914484741596951</v>
+        <v>0.4805260824644861</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.129047243113234</v>
+        <v>1.376345735844211</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03104484534798502</v>
+        <v>0.01078340942320466</v>
       </c>
       <c r="D7">
-        <v>0.01955208776355377</v>
+        <v>0.01349807775356027</v>
       </c>
       <c r="E7">
-        <v>1.109288302054992</v>
+        <v>0.3330207625991051</v>
       </c>
       <c r="F7">
-        <v>0.5551590149348939</v>
+        <v>0.642787145439371</v>
       </c>
       <c r="G7">
-        <v>0.477538512766003</v>
+        <v>0.4893430890560921</v>
       </c>
       <c r="H7">
-        <v>0.3164196753602511</v>
+        <v>0.6121235775838443</v>
       </c>
       <c r="I7">
-        <v>0.4041138745130723</v>
+        <v>0.4809562389669182</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.337350736955386</v>
+        <v>1.440349727189584</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03691481016776521</v>
+        <v>0.01276481038441801</v>
       </c>
       <c r="D8">
-        <v>0.02148245734667498</v>
+        <v>0.01419799286552248</v>
       </c>
       <c r="E8">
-        <v>1.371632292426554</v>
+        <v>0.4013236829115101</v>
       </c>
       <c r="F8">
-        <v>0.6403820728770881</v>
+        <v>0.6486944493642284</v>
       </c>
       <c r="G8">
-        <v>0.5570540660298491</v>
+        <v>0.4945744163124886</v>
       </c>
       <c r="H8">
-        <v>0.3388671617119741</v>
+        <v>0.6052282838342364</v>
       </c>
       <c r="I8">
-        <v>0.46462832488956</v>
+        <v>0.4841860865092471</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.261670589463165</v>
+        <v>1.722262593615312</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04852014339544297</v>
+        <v>0.01661348975781607</v>
       </c>
       <c r="D9">
-        <v>0.02565126192457967</v>
+        <v>0.01561295597925039</v>
       </c>
       <c r="E9">
-        <v>1.918022591489517</v>
+        <v>0.5363124900879086</v>
       </c>
       <c r="F9">
-        <v>0.8344254021394022</v>
+        <v>0.6666672777083988</v>
       </c>
       <c r="G9">
-        <v>0.7420051225936817</v>
+        <v>0.5108688228088454</v>
       </c>
       <c r="H9">
-        <v>0.3982559682794289</v>
+        <v>0.5963715487589951</v>
       </c>
       <c r="I9">
-        <v>0.6038904802744796</v>
+        <v>0.4953895683128096</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.103882959992234</v>
+        <v>2.273174336038039</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05716510173672162</v>
+        <v>0.0194179085137165</v>
       </c>
       <c r="D10">
-        <v>0.02905830369149953</v>
+        <v>0.01667860717864755</v>
       </c>
       <c r="E10">
-        <v>2.349736316809768</v>
+        <v>0.6363014345981242</v>
       </c>
       <c r="F10">
-        <v>0.9990917073889563</v>
+        <v>0.6838704930219137</v>
       </c>
       <c r="G10">
-        <v>0.9019312757943965</v>
+        <v>0.5266437538865034</v>
       </c>
       <c r="H10">
-        <v>0.4541534156994516</v>
+        <v>0.5927570039691972</v>
       </c>
       <c r="I10">
-        <v>0.7231109666214763</v>
+        <v>0.5066696195323246</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.48789727536348</v>
+        <v>2.676783849583671</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06113988737411802</v>
+        <v>0.02068854796150532</v>
       </c>
       <c r="D11">
-        <v>0.03071369196903362</v>
+        <v>0.0171691438802668</v>
       </c>
       <c r="E11">
-        <v>2.555676468238502</v>
+        <v>0.6820041668960357</v>
       </c>
       <c r="F11">
-        <v>1.080292557975994</v>
+        <v>0.6925875875241303</v>
       </c>
       <c r="G11">
-        <v>0.9815750953465567</v>
+        <v>0.5346729816348557</v>
       </c>
       <c r="H11">
-        <v>0.4830063028048528</v>
+        <v>0.5917513383246131</v>
       </c>
       <c r="I11">
-        <v>0.7821587164570403</v>
+        <v>0.5124806929517121</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.12742950978469</v>
+        <v>2.860156974896711</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06265268315095796</v>
+        <v>0.02116895663307616</v>
       </c>
       <c r="D12">
-        <v>0.03135886530343868</v>
+        <v>0.01735573254449463</v>
       </c>
       <c r="E12">
-        <v>2.635337177161531</v>
+        <v>0.6993448563502511</v>
       </c>
       <c r="F12">
-        <v>1.112092497338978</v>
+        <v>0.6960184931830327</v>
       </c>
       <c r="G12">
-        <v>1.012889628990848</v>
+        <v>0.5378382864868598</v>
       </c>
       <c r="H12">
-        <v>0.4944995580441969</v>
+        <v>0.5914632151034027</v>
       </c>
       <c r="I12">
-        <v>0.8053228643294688</v>
+        <v>0.514780335133544</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.371351307062298</v>
+        <v>2.929562370755377</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06232650854149568</v>
+        <v>0.02106552592800881</v>
       </c>
       <c r="D13">
-        <v>0.03121904486412319</v>
+        <v>0.01731551020982636</v>
       </c>
       <c r="E13">
-        <v>2.618100876397492</v>
+        <v>0.6956086686310812</v>
       </c>
       <c r="F13">
-        <v>1.105194510335082</v>
+        <v>0.6952737792546344</v>
       </c>
       <c r="G13">
-        <v>1.00609122754588</v>
+        <v>0.5371509963874388</v>
       </c>
       <c r="H13">
-        <v>0.4919977355931167</v>
+        <v>0.5915211307922306</v>
       </c>
       <c r="I13">
-        <v>0.8002963279255155</v>
+        <v>0.5142806359447292</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.318735247621646</v>
+        <v>2.91461620254745</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06126418321088067</v>
+        <v>0.02072808671797333</v>
       </c>
       <c r="D14">
-        <v>0.03076638366034246</v>
+        <v>0.01718447791974853</v>
       </c>
       <c r="E14">
-        <v>2.562194689473628</v>
+        <v>0.6834300970188707</v>
       </c>
       <c r="F14">
-        <v>1.082886781570252</v>
+        <v>0.6928672360138819</v>
       </c>
       <c r="G14">
-        <v>0.9841271814958645</v>
+        <v>0.5349308795254757</v>
       </c>
       <c r="H14">
-        <v>0.4839400213844556</v>
+        <v>0.5917257713932855</v>
       </c>
       <c r="I14">
-        <v>0.7840476298503702</v>
+        <v>0.5126678916007137</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.147460157645128</v>
+        <v>2.865867684966929</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06061452269354106</v>
+        <v>0.02052129654394719</v>
       </c>
       <c r="D15">
-        <v>0.03049160370043325</v>
+        <v>0.0171043254845884</v>
       </c>
       <c r="E15">
-        <v>2.528178671357551</v>
+        <v>0.6759748897660671</v>
       </c>
       <c r="F15">
-        <v>1.069364220138496</v>
+        <v>0.6914101323416162</v>
       </c>
       <c r="G15">
-        <v>0.970829294282737</v>
+        <v>0.5335873113415488</v>
       </c>
       <c r="H15">
-        <v>0.4790807300076807</v>
+        <v>0.5918632179347441</v>
       </c>
       <c r="I15">
-        <v>0.7742031485716154</v>
+        <v>0.5116929876599414</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.04278661598164</v>
+        <v>2.836003355968217</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05690631716655759</v>
+        <v>0.01933476471432982</v>
       </c>
       <c r="D16">
-        <v>0.02895249905662922</v>
+        <v>0.01664666578572849</v>
       </c>
       <c r="E16">
-        <v>2.336494444793104</v>
+        <v>0.6333192649745882</v>
       </c>
       <c r="F16">
-        <v>0.9939236747275544</v>
+        <v>0.6833188958283074</v>
       </c>
       <c r="G16">
-        <v>0.8968785313510921</v>
+        <v>0.5261363740494716</v>
       </c>
       <c r="H16">
-        <v>0.4523428726620438</v>
+        <v>0.5928356511843731</v>
       </c>
       <c r="I16">
-        <v>0.7193581114601528</v>
+        <v>0.5063036469999176</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.446328269392836</v>
+        <v>2.664795266112208</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05464329340891538</v>
+        <v>0.01860554330543351</v>
       </c>
       <c r="D17">
-        <v>0.02803739389522519</v>
+        <v>0.01636738562594076</v>
       </c>
       <c r="E17">
-        <v>2.221547145073643</v>
+        <v>0.6072090548071571</v>
       </c>
       <c r="F17">
-        <v>0.9493525468182185</v>
+        <v>0.6785847132933895</v>
       </c>
       <c r="G17">
-        <v>0.8533867386354217</v>
+        <v>0.521785485207289</v>
       </c>
       <c r="H17">
-        <v>0.4368670841337661</v>
+        <v>0.5935963869218028</v>
       </c>
       <c r="I17">
-        <v>0.6870199227460105</v>
+        <v>0.5031725271661998</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.08317627231645</v>
+        <v>2.559704900371457</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05334552259657244</v>
+        <v>0.01818563514886762</v>
       </c>
       <c r="D18">
-        <v>0.02752076212200905</v>
+        <v>0.01620729352811878</v>
       </c>
       <c r="E18">
-        <v>2.156310553850986</v>
+        <v>0.592211430965861</v>
       </c>
       <c r="F18">
-        <v>0.9242988810218264</v>
+        <v>0.6759455204672378</v>
       </c>
       <c r="G18">
-        <v>0.8290090453528478</v>
+        <v>0.5193631417070605</v>
       </c>
       <c r="H18">
-        <v>0.4282831081757621</v>
+        <v>0.5940939985218279</v>
       </c>
       <c r="I18">
-        <v>0.6688653642563054</v>
+        <v>0.5014354859345929</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.875214788390281</v>
+        <v>2.49923801519634</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05290673869656359</v>
+        <v>0.01804337979342563</v>
       </c>
       <c r="D19">
-        <v>0.0273474208793516</v>
+        <v>0.01615318216983042</v>
       </c>
       <c r="E19">
-        <v>2.134365027729203</v>
+        <v>0.5871368910587336</v>
       </c>
       <c r="F19">
-        <v>0.9159120715650317</v>
+        <v>0.6750662713635762</v>
       </c>
       <c r="G19">
-        <v>0.8208600820855025</v>
+        <v>0.5185566828268406</v>
       </c>
       <c r="H19">
-        <v>0.4254291131347259</v>
+        <v>0.594272769638323</v>
       </c>
       <c r="I19">
-        <v>0.6627919136410583</v>
+        <v>0.5008582861786195</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.804950677537647</v>
+        <v>2.478761268901735</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05488378597016208</v>
+        <v>0.01868321992735389</v>
       </c>
       <c r="D20">
-        <v>0.02813378222400331</v>
+        <v>0.01639705931005864</v>
       </c>
       <c r="E20">
-        <v>2.233690589039327</v>
+        <v>0.609986412207121</v>
       </c>
       <c r="F20">
-        <v>0.9540359463049981</v>
+        <v>0.6790799910577192</v>
       </c>
       <c r="G20">
-        <v>0.8579494103324379</v>
+        <v>0.5222403318082485</v>
       </c>
       <c r="H20">
-        <v>0.4384811632958048</v>
+        <v>0.5935091834319621</v>
       </c>
       <c r="I20">
-        <v>0.6904155111170382</v>
+        <v>0.5034992173273167</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.121737689583597</v>
+        <v>2.570894199901886</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06157599310723327</v>
+        <v>0.02082722144315596</v>
       </c>
       <c r="D21">
-        <v>0.03089881626414837</v>
+        <v>0.01722294263293378</v>
       </c>
       <c r="E21">
-        <v>2.578567528170993</v>
+        <v>0.6870062917681423</v>
       </c>
       <c r="F21">
-        <v>1.089409307891273</v>
+        <v>0.6935705556538636</v>
       </c>
       <c r="G21">
-        <v>0.9905457725744213</v>
+        <v>0.535579577289667</v>
       </c>
       <c r="H21">
-        <v>0.4862907184595571</v>
+        <v>0.5916631406587811</v>
       </c>
       <c r="I21">
-        <v>0.7887974696429794</v>
+        <v>0.5131388927833527</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.19771769901098</v>
+        <v>2.880187235909887</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06599512611685299</v>
+        <v>0.02222404112877996</v>
       </c>
       <c r="D22">
-        <v>0.03281457525355336</v>
+        <v>0.0177675636311676</v>
       </c>
       <c r="E22">
-        <v>2.813914787347471</v>
+        <v>0.737543082787198</v>
       </c>
       <c r="F22">
-        <v>1.184093689876192</v>
+        <v>0.7037991446056253</v>
       </c>
       <c r="G22">
-        <v>1.084033367396529</v>
+        <v>0.5450260355906806</v>
       </c>
       <c r="H22">
-        <v>0.5208870156073004</v>
+        <v>0.5909973831226978</v>
       </c>
       <c r="I22">
-        <v>0.8578470854851403</v>
+        <v>0.5200173380296746</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.911285096928225</v>
+        <v>3.082129457614542</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06363181472246282</v>
+        <v>0.02147894228181002</v>
       </c>
       <c r="D23">
-        <v>0.03178096065843761</v>
+        <v>0.01747644296669648</v>
       </c>
       <c r="E23">
-        <v>2.687279924519373</v>
+        <v>0.7105514181984347</v>
       </c>
       <c r="F23">
-        <v>1.132936466251238</v>
+        <v>0.6982699944741739</v>
       </c>
       <c r="G23">
-        <v>1.033451530135466</v>
+        <v>0.5399169183891672</v>
       </c>
       <c r="H23">
-        <v>0.5020879939250449</v>
+        <v>0.5913029437891879</v>
       </c>
       <c r="I23">
-        <v>0.8205177363873162</v>
+        <v>0.5162928067261774</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.529376463358687</v>
+        <v>2.974367521303122</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05477504920811782</v>
+        <v>0.01864810440905273</v>
       </c>
       <c r="D24">
-        <v>0.02809017577961725</v>
+        <v>0.01638364237454226</v>
       </c>
       <c r="E24">
-        <v>2.228197918267725</v>
+        <v>0.6087307271703821</v>
       </c>
       <c r="F24">
-        <v>0.9519168140086407</v>
+        <v>0.6788558189720959</v>
       </c>
       <c r="G24">
-        <v>0.8558846876807991</v>
+        <v>0.5220344496182747</v>
       </c>
       <c r="H24">
-        <v>0.4377504678731583</v>
+        <v>0.5935484205030974</v>
       </c>
       <c r="I24">
-        <v>0.6888790123840849</v>
+        <v>0.5033513243160499</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.104301543709482</v>
+        <v>2.565835670270019</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04536468810589156</v>
+        <v>0.01557634470093916</v>
       </c>
       <c r="D25">
-        <v>0.02447212116726405</v>
+        <v>0.01522561186803273</v>
       </c>
       <c r="E25">
-        <v>1.765773481501924</v>
+        <v>0.4996644755297268</v>
       </c>
       <c r="F25">
-        <v>0.7785040364853728</v>
+        <v>0.6611105011429572</v>
       </c>
       <c r="G25">
-        <v>0.688256200302817</v>
+        <v>0.5058018204032919</v>
       </c>
       <c r="H25">
-        <v>0.3802672372650733</v>
+        <v>0.598263112963636</v>
       </c>
       <c r="I25">
-        <v>0.5635949555948159</v>
+        <v>0.4918291350049628</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.601149270324356</v>
+        <v>2.124341324749821</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01329920743150836</v>
+        <v>0.03850967520553894</v>
       </c>
       <c r="D2">
-        <v>0.01439050169095069</v>
+        <v>0.02202793480481802</v>
       </c>
       <c r="E2">
-        <v>0.4198948074681823</v>
+        <v>1.444529047812239</v>
       </c>
       <c r="F2">
-        <v>0.650723534520111</v>
+        <v>0.6651073881761675</v>
       </c>
       <c r="G2">
-        <v>0.4963957283748357</v>
+        <v>0.5803537261963498</v>
       </c>
       <c r="H2">
-        <v>0.6036739029990343</v>
+        <v>0.345894109091617</v>
       </c>
       <c r="I2">
-        <v>0.4853878073064237</v>
+        <v>0.482274947052538</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.798516330223947</v>
+        <v>5.51370895991414</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0117465592745134</v>
+        <v>0.03388983773773191</v>
       </c>
       <c r="D3">
-        <v>0.01383539656992738</v>
+        <v>0.02047230291345059</v>
       </c>
       <c r="E3">
-        <v>0.3661090505551385</v>
+        <v>1.23526822382361</v>
       </c>
       <c r="F3">
-        <v>0.6453206059898733</v>
+        <v>0.5952979449857878</v>
       </c>
       <c r="G3">
-        <v>0.4915680850524922</v>
+        <v>0.5148219979011799</v>
       </c>
       <c r="H3">
-        <v>0.6085345640408946</v>
+        <v>0.3266078319758208</v>
       </c>
       <c r="I3">
-        <v>0.4822698352340282</v>
+        <v>0.4325489590505569</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.577216875162094</v>
+        <v>4.784674394640717</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01078868430304425</v>
+        <v>0.03106038442416548</v>
       </c>
       <c r="D4">
-        <v>0.01349990880263974</v>
+        <v>0.01955703363940131</v>
       </c>
       <c r="E4">
-        <v>0.3332013591716816</v>
+        <v>1.109970396353646</v>
       </c>
       <c r="F4">
-        <v>0.6427991269614992</v>
+        <v>0.555372057872809</v>
       </c>
       <c r="G4">
-        <v>0.4893534966733597</v>
+        <v>0.4777355119317264</v>
       </c>
       <c r="H4">
-        <v>0.6121025897213741</v>
+        <v>0.3164716331243795</v>
       </c>
       <c r="I4">
-        <v>0.4809619969855561</v>
+        <v>0.4042644369594512</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.44109836715262</v>
+        <v>4.339790468795172</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01039722334574122</v>
+        <v>0.02990843204139537</v>
       </c>
       <c r="D5">
-        <v>0.013364543540618</v>
+        <v>0.01919281628298819</v>
       </c>
       <c r="E5">
-        <v>0.3198181411214449</v>
+        <v>1.059584150330338</v>
       </c>
       <c r="F5">
-        <v>0.6419701663047803</v>
+        <v>0.5397685238767522</v>
       </c>
       <c r="G5">
-        <v>0.4886376070778908</v>
+        <v>0.4633345032207643</v>
       </c>
       <c r="H5">
-        <v>0.6137025729576635</v>
+        <v>0.3127333936814125</v>
       </c>
       <c r="I5">
-        <v>0.4805803515486744</v>
+        <v>0.3932483898856702</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.385569761136594</v>
+        <v>4.159033580179425</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01033215465805881</v>
+        <v>0.02971719632630965</v>
       </c>
       <c r="D6">
-        <v>0.0133421478344431</v>
+        <v>0.01913283330889826</v>
       </c>
       <c r="E6">
-        <v>0.3175974226221854</v>
+        <v>1.05125474237974</v>
       </c>
       <c r="F6">
-        <v>0.6418444644584369</v>
+        <v>0.5372158383338572</v>
       </c>
       <c r="G6">
-        <v>0.4885299465882724</v>
+        <v>0.4609840195692385</v>
       </c>
       <c r="H6">
-        <v>0.6139770439112056</v>
+        <v>0.3121353490381864</v>
       </c>
       <c r="I6">
-        <v>0.4805260824644861</v>
+        <v>0.3914484741596951</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.376345735844211</v>
+        <v>4.129047243113234</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01078340942320466</v>
+        <v>0.0310448453482195</v>
       </c>
       <c r="D7">
-        <v>0.01349807775356027</v>
+        <v>0.01955208776361772</v>
       </c>
       <c r="E7">
-        <v>0.3330207625991051</v>
+        <v>1.109288302054992</v>
       </c>
       <c r="F7">
-        <v>0.642787145439371</v>
+        <v>0.5551590149349011</v>
       </c>
       <c r="G7">
-        <v>0.4893430890560921</v>
+        <v>0.477538512766003</v>
       </c>
       <c r="H7">
-        <v>0.6121235775838443</v>
+        <v>0.3164196753602369</v>
       </c>
       <c r="I7">
-        <v>0.4809562389669182</v>
+        <v>0.4041138745130723</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.440349727189584</v>
+        <v>4.337350736955329</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01276481038441801</v>
+        <v>0.03691481016755205</v>
       </c>
       <c r="D8">
-        <v>0.01419799286552248</v>
+        <v>0.02148245734684906</v>
       </c>
       <c r="E8">
-        <v>0.4013236829115101</v>
+        <v>1.37163229242654</v>
       </c>
       <c r="F8">
-        <v>0.6486944493642284</v>
+        <v>0.6403820728770739</v>
       </c>
       <c r="G8">
-        <v>0.4945744163124886</v>
+        <v>0.557054066029778</v>
       </c>
       <c r="H8">
-        <v>0.6052282838342364</v>
+        <v>0.3388671617119741</v>
       </c>
       <c r="I8">
-        <v>0.4841860865092471</v>
+        <v>0.4646283248895529</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.722262593615312</v>
+        <v>5.261670589462994</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01661348975781607</v>
+        <v>0.04852014339531507</v>
       </c>
       <c r="D9">
-        <v>0.01561295597925039</v>
+        <v>0.02565126192470046</v>
       </c>
       <c r="E9">
-        <v>0.5363124900879086</v>
+        <v>1.918022591489517</v>
       </c>
       <c r="F9">
-        <v>0.6666672777083988</v>
+        <v>0.8344254021394164</v>
       </c>
       <c r="G9">
-        <v>0.5108688228088454</v>
+        <v>0.7420051225935822</v>
       </c>
       <c r="H9">
-        <v>0.5963715487589951</v>
+        <v>0.3982559682795426</v>
       </c>
       <c r="I9">
-        <v>0.4953895683128096</v>
+        <v>0.6038904802744725</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.273174336038039</v>
+        <v>7.103882959992347</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0194179085137165</v>
+        <v>0.05716510173675715</v>
       </c>
       <c r="D10">
-        <v>0.01667860717864755</v>
+        <v>0.02905830369142137</v>
       </c>
       <c r="E10">
-        <v>0.6363014345981242</v>
+        <v>2.349736316809782</v>
       </c>
       <c r="F10">
-        <v>0.6838704930219137</v>
+        <v>0.9990917073889705</v>
       </c>
       <c r="G10">
-        <v>0.5266437538865034</v>
+        <v>0.9019312757943965</v>
       </c>
       <c r="H10">
-        <v>0.5927570039691972</v>
+        <v>0.4541534156994231</v>
       </c>
       <c r="I10">
-        <v>0.5066696195323246</v>
+        <v>0.7231109666214834</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.676783849583671</v>
+        <v>8.48789727536348</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02068854796150532</v>
+        <v>0.0611398873742246</v>
       </c>
       <c r="D11">
-        <v>0.0171691438802668</v>
+        <v>0.03071369196914731</v>
       </c>
       <c r="E11">
-        <v>0.6820041668960357</v>
+        <v>2.555676468238502</v>
       </c>
       <c r="F11">
-        <v>0.6925875875241303</v>
+        <v>1.080292557976009</v>
       </c>
       <c r="G11">
-        <v>0.5346729816348557</v>
+        <v>0.9815750953466136</v>
       </c>
       <c r="H11">
-        <v>0.5917513383246131</v>
+        <v>0.4830063028047249</v>
       </c>
       <c r="I11">
-        <v>0.5124806929517121</v>
+        <v>0.7821587164570403</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.860156974896711</v>
+        <v>9.127429509784804</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02116895663307616</v>
+        <v>0.06265268315097217</v>
       </c>
       <c r="D12">
-        <v>0.01735573254449463</v>
+        <v>0.03135886530332499</v>
       </c>
       <c r="E12">
-        <v>0.6993448563502511</v>
+        <v>2.635337177161531</v>
       </c>
       <c r="F12">
-        <v>0.6960184931830327</v>
+        <v>1.112092497338949</v>
       </c>
       <c r="G12">
-        <v>0.5378382864868598</v>
+        <v>1.012889628990848</v>
       </c>
       <c r="H12">
-        <v>0.5914632151034027</v>
+        <v>0.4944995580441969</v>
       </c>
       <c r="I12">
-        <v>0.514780335133544</v>
+        <v>0.8053228643294545</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.929562370755377</v>
+        <v>9.371351307062241</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02106552592800881</v>
+        <v>0.06232650854163779</v>
       </c>
       <c r="D13">
-        <v>0.01731551020982636</v>
+        <v>0.03121904486430083</v>
       </c>
       <c r="E13">
-        <v>0.6956086686310812</v>
+        <v>2.618100876397548</v>
       </c>
       <c r="F13">
-        <v>0.6952737792546344</v>
+        <v>1.105194510335096</v>
       </c>
       <c r="G13">
-        <v>0.5371509963874388</v>
+        <v>1.006091227545866</v>
       </c>
       <c r="H13">
-        <v>0.5915211307922306</v>
+        <v>0.4919977355931167</v>
       </c>
       <c r="I13">
-        <v>0.5142806359447292</v>
+        <v>0.8002963279255226</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.91461620254745</v>
+        <v>9.318735247621703</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02072808671797333</v>
+        <v>0.06126418321103699</v>
       </c>
       <c r="D14">
-        <v>0.01718447791974853</v>
+        <v>0.03076638366023587</v>
       </c>
       <c r="E14">
-        <v>0.6834300970188707</v>
+        <v>2.562194689473614</v>
       </c>
       <c r="F14">
-        <v>0.6928672360138819</v>
+        <v>1.082886781570267</v>
       </c>
       <c r="G14">
-        <v>0.5349308795254757</v>
+        <v>0.9841271814958361</v>
       </c>
       <c r="H14">
-        <v>0.5917257713932855</v>
+        <v>0.4839400213844698</v>
       </c>
       <c r="I14">
-        <v>0.5126678916007137</v>
+        <v>0.7840476298503773</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.865867684966929</v>
+        <v>9.147460157645241</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02052129654394719</v>
+        <v>0.06061452269354106</v>
       </c>
       <c r="D15">
-        <v>0.0171043254845884</v>
+        <v>0.03049160370021298</v>
       </c>
       <c r="E15">
-        <v>0.6759748897660671</v>
+        <v>2.528178671357551</v>
       </c>
       <c r="F15">
-        <v>0.6914101323416162</v>
+        <v>1.069364220138496</v>
       </c>
       <c r="G15">
-        <v>0.5335873113415488</v>
+        <v>0.9708292942826944</v>
       </c>
       <c r="H15">
-        <v>0.5918632179347441</v>
+        <v>0.4790807300077944</v>
       </c>
       <c r="I15">
-        <v>0.5116929876599414</v>
+        <v>0.7742031485716296</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.836003355968217</v>
+        <v>9.04278661598164</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01933476471432982</v>
+        <v>0.05690631716665706</v>
       </c>
       <c r="D16">
-        <v>0.01664666578572849</v>
+        <v>0.02895249905677844</v>
       </c>
       <c r="E16">
-        <v>0.6333192649745882</v>
+        <v>2.336494444793104</v>
       </c>
       <c r="F16">
-        <v>0.6833188958283074</v>
+        <v>0.9939236747275402</v>
       </c>
       <c r="G16">
-        <v>0.5261363740494716</v>
+        <v>0.8968785313510921</v>
       </c>
       <c r="H16">
-        <v>0.5928356511843731</v>
+        <v>0.4523428726620438</v>
       </c>
       <c r="I16">
-        <v>0.5063036469999176</v>
+        <v>0.7193581114601457</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.664795266112208</v>
+        <v>8.44632826939295</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01860554330543351</v>
+        <v>0.05464329340890828</v>
       </c>
       <c r="D17">
-        <v>0.01636738562594076</v>
+        <v>0.02803739389499782</v>
       </c>
       <c r="E17">
-        <v>0.6072090548071571</v>
+        <v>2.221547145073629</v>
       </c>
       <c r="F17">
-        <v>0.6785847132933895</v>
+        <v>0.9493525468182042</v>
       </c>
       <c r="G17">
-        <v>0.521785485207289</v>
+        <v>0.8533867386353933</v>
       </c>
       <c r="H17">
-        <v>0.5935963869218028</v>
+        <v>0.4368670841337661</v>
       </c>
       <c r="I17">
-        <v>0.5031725271661998</v>
+        <v>0.6870199227460176</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.559704900371457</v>
+        <v>8.083176272316223</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01818563514886762</v>
+        <v>0.05334552259633085</v>
       </c>
       <c r="D18">
-        <v>0.01620729352811878</v>
+        <v>0.02752076212230037</v>
       </c>
       <c r="E18">
-        <v>0.592211430965861</v>
+        <v>2.156310553850943</v>
       </c>
       <c r="F18">
-        <v>0.6759455204672378</v>
+        <v>0.9242988810218407</v>
       </c>
       <c r="G18">
-        <v>0.5193631417070605</v>
+        <v>0.8290090453529046</v>
       </c>
       <c r="H18">
-        <v>0.5940939985218279</v>
+        <v>0.42828310817589</v>
       </c>
       <c r="I18">
-        <v>0.5014354859345929</v>
+        <v>0.6688653642563054</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.49923801519634</v>
+        <v>7.875214788390451</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01804337979342563</v>
+        <v>0.05290673869654938</v>
       </c>
       <c r="D19">
-        <v>0.01615318216983042</v>
+        <v>0.02734742087945818</v>
       </c>
       <c r="E19">
-        <v>0.5871368910587336</v>
+        <v>2.134365027729203</v>
       </c>
       <c r="F19">
-        <v>0.6750662713635762</v>
+        <v>0.9159120715650459</v>
       </c>
       <c r="G19">
-        <v>0.5185566828268406</v>
+        <v>0.820860082085531</v>
       </c>
       <c r="H19">
-        <v>0.594272769638323</v>
+        <v>0.4254291131348253</v>
       </c>
       <c r="I19">
-        <v>0.5008582861786195</v>
+        <v>0.6627919136410583</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.478761268901735</v>
+        <v>7.804950677537647</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01868321992735389</v>
+        <v>0.0548837859701834</v>
       </c>
       <c r="D20">
-        <v>0.01639705931005864</v>
+        <v>0.02813378222399621</v>
       </c>
       <c r="E20">
-        <v>0.609986412207121</v>
+        <v>2.233690589039341</v>
       </c>
       <c r="F20">
-        <v>0.6790799910577192</v>
+        <v>0.9540359463049839</v>
       </c>
       <c r="G20">
-        <v>0.5222403318082485</v>
+        <v>0.857949410332381</v>
       </c>
       <c r="H20">
-        <v>0.5935091834319621</v>
+        <v>0.4384811632956769</v>
       </c>
       <c r="I20">
-        <v>0.5034992173273167</v>
+        <v>0.6904155111170311</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.570894199901886</v>
+        <v>8.121737689583654</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02082722144315596</v>
+        <v>0.06157599310720485</v>
       </c>
       <c r="D21">
-        <v>0.01722294263293378</v>
+        <v>0.03089881626411284</v>
       </c>
       <c r="E21">
-        <v>0.6870062917681423</v>
+        <v>2.578567528171007</v>
       </c>
       <c r="F21">
-        <v>0.6935705556538636</v>
+        <v>1.089409307891302</v>
       </c>
       <c r="G21">
-        <v>0.535579577289667</v>
+        <v>0.9905457725743361</v>
       </c>
       <c r="H21">
-        <v>0.5916631406587811</v>
+        <v>0.4862907184595571</v>
       </c>
       <c r="I21">
-        <v>0.5131388927833527</v>
+        <v>0.7887974696429936</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.880187235909887</v>
+        <v>9.197717699010866</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02222404112877996</v>
+        <v>0.06599512611710878</v>
       </c>
       <c r="D22">
-        <v>0.0177675636311676</v>
+        <v>0.03281457525365283</v>
       </c>
       <c r="E22">
-        <v>0.737543082787198</v>
+        <v>2.813914787347443</v>
       </c>
       <c r="F22">
-        <v>0.7037991446056253</v>
+        <v>1.184093689876178</v>
       </c>
       <c r="G22">
-        <v>0.5450260355906806</v>
+        <v>1.084033367396557</v>
       </c>
       <c r="H22">
-        <v>0.5909973831226978</v>
+        <v>0.5208870156073004</v>
       </c>
       <c r="I22">
-        <v>0.5200173380296746</v>
+        <v>0.8578470854851403</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.082129457614542</v>
+        <v>9.911285096928282</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02147894228181002</v>
+        <v>0.06363181472233492</v>
       </c>
       <c r="D23">
-        <v>0.01747644296669648</v>
+        <v>0.0317809606582955</v>
       </c>
       <c r="E23">
-        <v>0.7105514181984347</v>
+        <v>2.687279924519331</v>
       </c>
       <c r="F23">
-        <v>0.6982699944741739</v>
+        <v>1.132936466251252</v>
       </c>
       <c r="G23">
-        <v>0.5399169183891672</v>
+        <v>1.033451530135437</v>
       </c>
       <c r="H23">
-        <v>0.5913029437891879</v>
+        <v>0.5020879939250307</v>
       </c>
       <c r="I23">
-        <v>0.5162928067261774</v>
+        <v>0.8205177363873091</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.974367521303122</v>
+        <v>9.529376463358744</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01864810440905273</v>
+        <v>0.05477504920823861</v>
       </c>
       <c r="D24">
-        <v>0.01638364237454226</v>
+        <v>0.02809017577979489</v>
       </c>
       <c r="E24">
-        <v>0.6087307271703821</v>
+        <v>2.228197918267696</v>
       </c>
       <c r="F24">
-        <v>0.6788558189720959</v>
+        <v>0.9519168140086691</v>
       </c>
       <c r="G24">
-        <v>0.5220344496182747</v>
+        <v>0.8558846876807991</v>
       </c>
       <c r="H24">
-        <v>0.5935484205030974</v>
+        <v>0.4377504678731583</v>
       </c>
       <c r="I24">
-        <v>0.5033513243160499</v>
+        <v>0.6888790123840849</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.565835670270019</v>
+        <v>8.104301543709482</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01557634470093916</v>
+        <v>0.04536468810587735</v>
       </c>
       <c r="D25">
-        <v>0.01522561186803273</v>
+        <v>0.02447212116721431</v>
       </c>
       <c r="E25">
-        <v>0.4996644755297268</v>
+        <v>1.765773481501952</v>
       </c>
       <c r="F25">
-        <v>0.6611105011429572</v>
+        <v>0.7785040364853728</v>
       </c>
       <c r="G25">
-        <v>0.5058018204032919</v>
+        <v>0.6882562003028312</v>
       </c>
       <c r="H25">
-        <v>0.598263112963636</v>
+        <v>0.3802672372651728</v>
       </c>
       <c r="I25">
-        <v>0.4918291350049628</v>
+        <v>0.5635949555948017</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.124341324749821</v>
+        <v>6.601149270324299</v>
       </c>
       <c r="L25">
         <v>0</v>
